--- a/eda/vlsp2016/test/column-1-analyze.xlsx
+++ b/eda/vlsp2016/test/column-1-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>1</t>
   </si>
@@ -31,16 +31,10 @@
     <t>nhiều, hơn, nhất, gần, khác, cùng, lớn, cao, đầu tiên, nghèo</t>
   </si>
   <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>đờmi</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>thì, mà, như, nhưng, là, nên, Nhưng, rồi, rằng, Còn</t>
+    <t>và, thì, mà, như, nhưng, là, nên, Nhưng, rồi, rằng</t>
   </si>
   <si>
     <t>CH</t>
@@ -49,12 +43,6 @@
     <t>,, ., “, ”, :, ..., -, ), (, !</t>
   </si>
   <si>
-    <t>Cc</t>
-  </si>
-  <si>
-    <t>và, hay, cùng, Và, hoặc, với, hay là</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -64,13 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>Merdeka, fee, world, veste, Scandal, of, the, brand, Running, sound</t>
+    <t>két, golf, Merdeka, gas, fee, bar, judo, tivi, ôtô, bêtông</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ạ, ơi, Ôi, à, Thôi, nha, Ối, Trời ơi, rồi, nghen</t>
+    <t>ạ, ơi, Ôi, à, Thôi, Ối, nha, Trời ơi, nghen, Trời</t>
   </si>
   <si>
     <t>L</t>
@@ -91,52 +79,28 @@
     <t>người, khi, năm, nhà, sau, ngày, đường, dân, tuổi, lần</t>
   </si>
   <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>Văn, VN, Mai, Nguyễn, Hoà, Trần, Sài Gòn, Nhật, Minh, Tiết</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>két, golf, gas, bar, judo, bêtông, ôtô, tivi, karaoke, cuarơ</t>
-  </si>
-  <si>
     <t>Nc</t>
   </si>
   <si>
-    <t>cái, chiếc, con, ngôi, tấm, căn, cây, trái, Cái, khẩu</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>bộ, bọn, đoàn, tụi, lũ, Bọn, Tụi, đàn, đám, dãy</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>D1, 1A, IR64, B, IR59606, CLB, 1A-1B, D, NBF342, IR66</t>
-  </si>
-  <si>
-    <t>Ns</t>
-  </si>
-  <si>
-    <t>ông, anh, người, cô, Ông, đứa, chị, Anh, bà, Người</t>
+    <t>ông, anh, người, cô, cái, chiếc, Ông, con, đứa, chị</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Văn, VN, Mai, Nguyễn, Hoà, Trần, Sài Gòn, Nhật, Tiết, Minh</t>
   </si>
   <si>
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, phút, km, g, giờ, USD, ha, đô, m, tệ</t>
+    <t>đồng, phút, g, km, giờ, USD, ha, đô, m, tệ</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>HCV, HLV, TP., UBND, VĐV, Q., NV, P., TP, CLB</t>
+    <t>HCV, HLV, TP., UBND, VĐV, Q., NV, P., THCS, TP</t>
   </si>
   <si>
     <t>P</t>
@@ -154,7 +118,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, thôi, chính, đấy, mà, tận, cái, thật, ngay, hề</t>
+    <t>cả, thôi, chính, đấy, mà, tận, cái, hề, thật, Chính</t>
   </si>
   <si>
     <t>V</t>
@@ -163,12 +127,6 @@
     <t>là, có, đi, được, làm, phải, lên, ra, bị, nói</t>
   </si>
   <si>
-    <t>Vb</t>
-  </si>
-  <si>
-    <t>matxa, lăngxê, photo, vôlê, online</t>
-  </si>
-  <si>
     <t>Vy</t>
   </si>
   <si>
@@ -178,13 +136,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như thế, như vậy, nhất là, làm sao, có lẽ, làm gì, thất thập cổ lai hi, Vậy mà, Thật ra, khác nào</t>
+    <t>như thế, như vậy, nhất là, có lẽ, làm sao, làm gì, có vẻ, vì thế, Vì vậy, thất thập cổ lai hi</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>bất, siêu, phi, đại, liên, phó, bán, gia</t>
+    <t>bất, siêu, phi, đại, phó, gia, bán, liên</t>
   </si>
 </sst>
 </file>
@@ -533,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -568,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2297</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -579,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1641</v>
+        <v>9765</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -590,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>9765</v>
+        <v>3816</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -601,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>656</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -612,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>3816</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -623,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>1157</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -634,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>2623</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -645,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>1157</v>
+        <v>15381</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -656,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>2623</v>
+        <v>2196</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -667,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>15381</v>
+        <v>4123</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -678,7 +636,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>4111</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -689,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -700,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>499</v>
+        <v>2593</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -711,7 +669,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>110</v>
+        <v>4260</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -722,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -733,7 +691,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>1587</v>
+        <v>12651</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -744,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -755,7 +713,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -766,87 +724,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>2593</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="n">
-        <v>258</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12643</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="n">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
